--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC50.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC50.xlsx
@@ -523,9 +523,6 @@
     <t>Estanque</t>
   </si>
   <si>
-    <t>CN_08_01_REC50</t>
-  </si>
-  <si>
     <t>Suelo</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>Fauna</t>
+  </si>
+  <si>
+    <t>CN_03_04_REC50</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2258,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2387,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC50_IMG01.png</v>
+        <v>CN_03_04_REC50_IMG01.png</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC50_IMG02.png</v>
+        <v>CN_03_04_REC50_IMG02.png</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC50_IMG03.png</v>
+        <v>CN_03_04_REC50_IMG03.png</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2567,7 +2567,7 @@
         <v/>
       </c>
       <c r="J12" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC50_IMG04.png</v>
+        <v>CN_03_04_REC50_IMG04.png</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2606,7 +2606,7 @@
         <v/>
       </c>
       <c r="J13" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC50_IMG05.png</v>
+        <v>CN_03_04_REC50_IMG05.png</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2645,7 +2645,7 @@
         <v/>
       </c>
       <c r="J14" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" s="19"/>
     </row>
